--- a/Validación.xlsx
+++ b/Validación.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -246,7 +246,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -356,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -370,6 +370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,22 +650,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" topLeftCell="C52" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>5</v>
       </c>
@@ -672,7 +673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>4</v>
       </c>
@@ -680,561 +681,815 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4</v>
+      </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4</v>
+      </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
+        <v>5</v>
+      </c>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13">
+        <v>5</v>
+      </c>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="13">
+        <v>1</v>
+      </c>
+      <c r="E11" s="13">
+        <v>2</v>
+      </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
+      <c r="D12" s="13">
+        <v>1</v>
+      </c>
+      <c r="E12" s="13">
+        <v>2</v>
+      </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
+      <c r="D13" s="13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="13">
+        <v>4</v>
+      </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
+      <c r="D14" s="13">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13">
+        <v>5</v>
+      </c>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
+      <c r="D16" s="13">
+        <v>1</v>
+      </c>
+      <c r="E16" s="13">
+        <v>5</v>
+      </c>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
+      <c r="D17" s="13">
+        <v>1</v>
+      </c>
+      <c r="E17" s="13">
+        <v>5</v>
+      </c>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
+      <c r="D18" s="13">
+        <v>1</v>
+      </c>
+      <c r="E18" s="13">
+        <v>3</v>
+      </c>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
+      <c r="D19" s="13">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
+      <c r="D20" s="13">
+        <v>1</v>
+      </c>
+      <c r="E20" s="13">
+        <v>4</v>
+      </c>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9"/>
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>5</v>
+      </c>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="3"/>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>5</v>
+      </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
+      <c r="D23" s="13">
+        <v>1</v>
+      </c>
+      <c r="E23" s="13">
+        <v>4</v>
+      </c>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
+      <c r="D24" s="13">
+        <v>1</v>
+      </c>
+      <c r="E24" s="13">
+        <v>4</v>
+      </c>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
+      <c r="D25" s="13">
+        <v>1</v>
+      </c>
+      <c r="E25" s="13">
+        <v>5</v>
+      </c>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
+      <c r="D26" s="13">
+        <v>1</v>
+      </c>
+      <c r="E26" s="13">
+        <v>5</v>
+      </c>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
+      <c r="D27" s="13">
+        <v>1</v>
+      </c>
+      <c r="E27" s="13">
+        <v>5</v>
+      </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="6"/>
+      <c r="D28" s="13">
+        <v>1</v>
+      </c>
+      <c r="E28" s="13">
+        <v>4</v>
+      </c>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C29" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
+      <c r="D29" s="8">
+        <v>1</v>
+      </c>
+      <c r="E29" s="8">
+        <v>4</v>
+      </c>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C30" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="3"/>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C31" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="6"/>
+      <c r="D31" s="13">
+        <v>1</v>
+      </c>
+      <c r="E31" s="13">
+        <v>3</v>
+      </c>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C32" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="6"/>
+      <c r="D32" s="13">
+        <v>1</v>
+      </c>
+      <c r="E32" s="13">
+        <v>4</v>
+      </c>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C33" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="6"/>
+      <c r="D33" s="13">
+        <v>0</v>
+      </c>
+      <c r="E33" s="5"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C34" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="6"/>
+      <c r="D34" s="13">
+        <v>1</v>
+      </c>
+      <c r="E34" s="13">
+        <v>5</v>
+      </c>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C35" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="6"/>
+      <c r="D35" s="13">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C36" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="6"/>
+      <c r="D36" s="13">
+        <v>1</v>
+      </c>
+      <c r="E36" s="13">
+        <v>5</v>
+      </c>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C37" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="6"/>
+      <c r="D37" s="13">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C38" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="6"/>
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="E38" s="5">
+        <v>5</v>
+      </c>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C39" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="6"/>
+      <c r="D39" s="13">
+        <v>1</v>
+      </c>
+      <c r="E39" s="13">
+        <v>5</v>
+      </c>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C40" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="6"/>
+      <c r="D40" s="13">
+        <v>1</v>
+      </c>
+      <c r="E40" s="13">
+        <v>4</v>
+      </c>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C41" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="6"/>
+      <c r="D41" s="13">
+        <v>1</v>
+      </c>
+      <c r="E41" s="13">
+        <v>3</v>
+      </c>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C42" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="6"/>
+      <c r="D42" s="13">
+        <v>1</v>
+      </c>
+      <c r="E42" s="13">
+        <v>4</v>
+      </c>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C43" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="6"/>
+      <c r="D43" s="13">
+        <v>1</v>
+      </c>
+      <c r="E43" s="13">
+        <v>4</v>
+      </c>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C44" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="6"/>
+      <c r="D44" s="13">
+        <v>1</v>
+      </c>
+      <c r="E44" s="13">
+        <v>5</v>
+      </c>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C45" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="6"/>
+      <c r="D45" s="13">
+        <v>1</v>
+      </c>
+      <c r="E45" s="13">
+        <v>0</v>
+      </c>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C46" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="6"/>
+      <c r="D46" s="13">
+        <v>1</v>
+      </c>
+      <c r="E46" s="13">
+        <v>0</v>
+      </c>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C47" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="6"/>
+      <c r="D47" s="13">
+        <v>1</v>
+      </c>
+      <c r="E47" s="13">
+        <v>4</v>
+      </c>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C48" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="6"/>
+      <c r="D48" s="13">
+        <v>1</v>
+      </c>
+      <c r="E48" s="13">
+        <v>5</v>
+      </c>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="6"/>
+      <c r="D49" s="13">
+        <v>1</v>
+      </c>
+      <c r="E49" s="13">
+        <v>1</v>
+      </c>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C50" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="6"/>
+      <c r="D50" s="13">
+        <v>1</v>
+      </c>
+      <c r="E50" s="13">
+        <v>0</v>
+      </c>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C51" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="6"/>
+      <c r="D51" s="13">
+        <v>0</v>
+      </c>
+      <c r="E51" s="5"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C52" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="6"/>
+      <c r="D52" s="13">
+        <v>1</v>
+      </c>
+      <c r="E52" s="13">
+        <v>4</v>
+      </c>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C53" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="9"/>
+      <c r="D53" s="8">
+        <v>0</v>
+      </c>
+      <c r="E53" s="8"/>
       <c r="F53" s="9"/>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C54" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="3"/>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2">
+        <v>5</v>
+      </c>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C55" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="6"/>
+      <c r="D55" s="13">
+        <v>1</v>
+      </c>
+      <c r="E55" s="13">
+        <v>5</v>
+      </c>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C56" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="6"/>
+      <c r="D56" s="13">
+        <v>1</v>
+      </c>
+      <c r="E56" s="13">
+        <v>0</v>
+      </c>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C57" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="6"/>
+      <c r="D57" s="13">
+        <v>0</v>
+      </c>
+      <c r="E57" s="5"/>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C58" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="6"/>
+      <c r="D58" s="13">
+        <v>0</v>
+      </c>
+      <c r="E58" s="5"/>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C59" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="6"/>
+      <c r="D59" s="13">
+        <v>1</v>
+      </c>
+      <c r="E59" s="13">
+        <v>3</v>
+      </c>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C60" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="6"/>
+      <c r="D60" s="13">
+        <v>1</v>
+      </c>
+      <c r="E60" s="13">
+        <v>4</v>
+      </c>
       <c r="F60" s="6"/>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C61" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="6"/>
+      <c r="D61" s="13">
+        <v>1</v>
+      </c>
+      <c r="E61" s="13">
+        <v>0</v>
+      </c>
       <c r="F61" s="6"/>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C62" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="6"/>
+      <c r="D62" s="13">
+        <v>1</v>
+      </c>
+      <c r="E62" s="13">
+        <v>0</v>
+      </c>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C63" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="6"/>
+      <c r="D63" s="13">
+        <v>1</v>
+      </c>
+      <c r="E63" s="13">
+        <v>5</v>
+      </c>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C64" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="6"/>
+      <c r="D64" s="13">
+        <v>1</v>
+      </c>
+      <c r="E64" s="13">
+        <v>0</v>
+      </c>
       <c r="F64" s="6"/>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C65" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D65" s="5"/>
-      <c r="E65" s="6"/>
+      <c r="D65" s="13">
+        <v>1</v>
+      </c>
+      <c r="E65" s="13">
+        <v>4</v>
+      </c>
       <c r="F65" s="6"/>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C66" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="6"/>
+      <c r="D66" s="13">
+        <v>1</v>
+      </c>
+      <c r="E66" s="13">
+        <v>5</v>
+      </c>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C67" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D67" s="5"/>
-      <c r="E67" s="6"/>
+      <c r="D67" s="13">
+        <v>1</v>
+      </c>
+      <c r="E67" s="13">
+        <v>0</v>
+      </c>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C68" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="6"/>
+      <c r="D68" s="13">
+        <v>0</v>
+      </c>
+      <c r="E68" s="5"/>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C69" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="6"/>
+      <c r="D69" s="13">
+        <v>1</v>
+      </c>
+      <c r="E69" s="13">
+        <v>5</v>
+      </c>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C70" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D70" s="8"/>
-      <c r="E70" s="9"/>
+      <c r="D70" s="8">
+        <v>0</v>
+      </c>
+      <c r="E70" s="8"/>
       <c r="F70" s="9"/>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C71" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D71" s="2"/>
-      <c r="E71" s="3"/>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0</v>
+      </c>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C72" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D72" s="5"/>
-      <c r="E72" s="6"/>
+      <c r="D72" s="13">
+        <v>1</v>
+      </c>
+      <c r="E72" s="13">
+        <v>4</v>
+      </c>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C73" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="6"/>
+      <c r="D73" s="13">
+        <v>1</v>
+      </c>
+      <c r="E73" s="13">
+        <v>0</v>
+      </c>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C74" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D74" s="8"/>
-      <c r="E74" s="9"/>
+      <c r="D74" s="8">
+        <v>1</v>
+      </c>
+      <c r="E74" s="8">
+        <v>4</v>
+      </c>
       <c r="F74" s="9"/>
     </row>
   </sheetData>
